--- a/input_test/HMP2360_r0_t3_new.xlsx
+++ b/input_test/HMP2360_r0_t3_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="143">
   <si>
     <t>General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>fixed?</t>
+  </si>
+  <si>
+    <t>measured?</t>
   </si>
   <si>
     <t>Acetyl-coa</t>
@@ -588,7 +591,7 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -732,19 +735,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -878,16 +881,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1101,16 +1104,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1411,57 +1414,57 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.2429149797571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.8137651821862"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1469,13 +1472,13 @@
         <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>24</v>
@@ -1487,7 +1490,7 @@
         <v>4</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1495,16 +1498,16 @@
         <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -1513,7 +1516,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1521,16 +1524,16 @@
         <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>27</v>
@@ -1542,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1550,13 +1553,13 @@
         <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>0</v>
@@ -1565,7 +1568,7 @@
         <v>2</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1573,16 +1576,16 @@
         <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -1591,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1599,16 +1602,16 @@
         <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>27</v>
@@ -1620,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1628,7 +1631,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1642,7 +1645,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1651,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1659,7 +1662,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1668,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1676,7 +1679,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1685,7 +1688,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1693,7 +1696,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1702,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1710,7 +1713,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1719,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1727,7 +1730,7 @@
         <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1736,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2692,10 +2695,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2703,7 +2706,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -2718,6 +2721,9 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2725,7 +2731,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2735,6 +2741,9 @@
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2742,7 +2751,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2752,6 +2761,9 @@
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2759,7 +2771,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2769,6 +2781,9 @@
       </c>
       <c r="E4" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2776,7 +2791,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2786,6 +2801,9 @@
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2793,7 +2811,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2802,6 +2820,9 @@
         <v>1</v>
       </c>
       <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2810,7 +2831,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2819,6 +2840,9 @@
         <v>1</v>
       </c>
       <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2827,7 +2851,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2836,6 +2860,9 @@
         <v>1</v>
       </c>
       <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2844,7 +2871,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2853,6 +2880,9 @@
         <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2861,7 +2891,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2870,6 +2900,9 @@
         <v>1</v>
       </c>
       <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,7 +2911,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2887,6 +2920,9 @@
         <v>1</v>
       </c>
       <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2895,7 +2931,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2904,6 +2940,9 @@
         <v>1</v>
       </c>
       <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2912,7 +2951,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2922,6 +2961,9 @@
       </c>
       <c r="E13" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2929,7 +2971,7 @@
         <v>31</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2939,6 +2981,9 @@
       </c>
       <c r="E14" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2946,7 +2991,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2956,6 +3001,9 @@
       </c>
       <c r="E15" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2963,7 +3011,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2973,6 +3021,9 @@
       </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2980,7 +3031,7 @@
         <v>34</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2990,6 +3041,9 @@
       </c>
       <c r="E17" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2997,7 +3051,7 @@
         <v>35</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -3007,6 +3061,9 @@
       </c>
       <c r="E18" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3014,7 +3071,7 @@
         <v>36</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -3024,6 +3081,9 @@
       </c>
       <c r="E19" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3031,7 +3091,7 @@
         <v>37</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -3041,6 +3101,9 @@
       </c>
       <c r="E20" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3048,7 +3111,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -3058,6 +3121,9 @@
       </c>
       <c r="E21" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3092,16 +3158,16 @@
         <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3109,7 +3175,7 @@
         <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3123,7 +3189,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3137,7 +3203,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3151,7 +3217,7 @@
         <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3165,7 +3231,7 @@
         <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3179,7 +3245,7 @@
         <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3193,7 +3259,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3207,7 +3273,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3221,7 +3287,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3235,7 +3301,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3249,7 +3315,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3263,7 +3329,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3277,7 +3343,7 @@
         <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3412,7 +3478,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3544,7 +3610,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3676,13 +3742,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3857,13 +3923,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
